--- a/Archetypes/a_archetypes.xlsx
+++ b/Archetypes/a_archetypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9982E7-C60A-4CB7-9C21-9AB2075695DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61661B59-975B-4979-8AC7-4CABD9EBE6D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>a_archetype_1</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>study</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
   <si>
     <t>family_types</t>
@@ -429,7 +426,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,12 +459,12 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -485,7 +482,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -508,7 +505,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -531,7 +528,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -550,11 +547,8 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -577,7 +571,7 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Archetypes/a_archetypes.xlsx
+++ b/Archetypes/a_archetypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61661B59-975B-4979-8AC7-4CABD9EBE6D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458261A1-C24F-4A58-9788-0AFACA79A780}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,9 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
